--- a/benchmarks.xlsx
+++ b/benchmarks.xlsx
@@ -1,14 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20372"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20373"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{759AD46E-A86C-4E99-B752-3F1523D2C880}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4149E06-722D-44CD-A7F6-44974C1A40ED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="benchmarks" sheetId="1" r:id="rId1"/>
+    <sheet name="PolyTop" sheetId="3" r:id="rId1"/>
+    <sheet name="topopt.py" sheetId="2" r:id="rId2"/>
+    <sheet name="top3d" sheetId="1" r:id="rId3"/>
+    <sheet name="top3d125" sheetId="6" r:id="rId4"/>
+    <sheet name="neo99_2D" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="65">
   <si>
     <t>cantilever beam problem</t>
     <phoneticPr fontId="1"/>
@@ -145,12 +149,145 @@
     <t>5.68 - 7.87</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>TopOpt.jl</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>kkt tol</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  f_converged: Bool true</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  kkt_converged: Bool false</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  ipopt_converged: Bool false</t>
+  </si>
+  <si>
+    <t>iter</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ipopt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>iter</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>top3d</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>python - topopt.py</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>frel</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>topopt.py</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>xtol</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PolyTop</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>xtol</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>N/A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tol_f (abs)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>matlab - PolyTop</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MBB 2D</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>out of memory</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>matlab - top3d125</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>180x60</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>360x120</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>720x240</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Problem size</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TopOpt.jl</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PolyTop</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1440x480</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>topopt.py</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>top3D125</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>24x12x12</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>48x24x24</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>96x48x48</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>top3D125</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -165,8 +302,15 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -179,8 +323,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="17">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -412,11 +574,79 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -428,21 +658,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -487,6 +702,138 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -502,6 +849,2276 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1920" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>MBB 2D</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1920" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>PolyTop!$C$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TopOpt.jl</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ja-JP"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>PolyTop!$B$16:$B$18</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>180x60</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>360x120</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>720x240</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>PolyTop!$C$16:$C$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>15.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>46.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>335</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E864-4B07-905F-DB6A56A96A73}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>PolyTop!$D$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PolyTop</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ja-JP"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>PolyTop!$B$16:$B$18</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>180x60</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>360x120</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>720x240</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>PolyTop!$D$16:$D$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>622</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E864-4B07-905F-DB6A56A96A73}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1981492720"/>
+        <c:axId val="1979557056"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1981492720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1979557056"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1979557056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>runtime (sec)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1981492720"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1600" baseline="0">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1920" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Cantilever Beam 2D</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1920" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>topopt.py!$B$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TopOpt.jl</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ja-JP"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>topopt.py!$A$30:$A$33</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>180x60</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>360x120</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>720x240</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1440x480</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>topopt.py!$B$30:$B$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>706</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E864-4B07-905F-DB6A56A96A73}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>topopt.py!$C$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>topopt.py</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ja-JP"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>topopt.py!$A$30:$A$33</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>180x60</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>360x120</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>720x240</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1440x480</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>topopt.py!$C$30:$C$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>131.30000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>719.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E864-4B07-905F-DB6A56A96A73}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1981492720"/>
+        <c:axId val="1979557056"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1981492720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1979557056"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1979557056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>runtime (sec)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1981492720"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1600" baseline="0">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent5"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent5"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>278130</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C34C5058-AB72-4FD4-B1D8-0023C0112B63}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>523240</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>71120</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D9DA320-9FF0-42B3-8BC3-5EB6B1200339}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -766,16 +3383,1593 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BBA36B3-5BEE-4935-8F61-DCE6985BBAE8}">
+  <dimension ref="A1:R21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="61" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetData>
+    <row r="1" spans="1:18">
+      <c r="A1" s="51" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="52"/>
+      <c r="C1" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+    </row>
+    <row r="2" spans="1:18">
+      <c r="A2" s="51" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="52"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+    </row>
+    <row r="3" spans="1:18" s="47" customFormat="1" ht="36.6" thickBot="1">
+      <c r="A3" s="43"/>
+      <c r="B3" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="L3" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="M3" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="N3" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="P3" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q3" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="R3" s="46" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="18.600000000000001" thickBot="1">
+      <c r="A4" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="9">
+        <v>180</v>
+      </c>
+      <c r="C4" s="10">
+        <v>60</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="3"/>
+      <c r="I4" s="2">
+        <v>1000</v>
+      </c>
+      <c r="J4" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="K4" s="35">
+        <v>1E-3</v>
+      </c>
+      <c r="L4" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1">
+        <v>50.8</v>
+      </c>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1">
+        <v>23</v>
+      </c>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="18.600000000000001" thickBot="1">
+      <c r="A5" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="36">
+        <v>180</v>
+      </c>
+      <c r="C5" s="37">
+        <v>60</v>
+      </c>
+      <c r="D5" s="23"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="24"/>
+      <c r="I5" s="21">
+        <v>1000</v>
+      </c>
+      <c r="J5" s="24">
+        <v>1E-3</v>
+      </c>
+      <c r="K5" s="24">
+        <v>1E-3</v>
+      </c>
+      <c r="L5" s="24">
+        <v>1E-3</v>
+      </c>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21">
+        <v>46.49</v>
+      </c>
+      <c r="O5" s="24"/>
+      <c r="P5" s="21">
+        <v>15.8</v>
+      </c>
+      <c r="Q5" s="21"/>
+      <c r="R5" s="21">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="18.600000000000001" thickBot="1">
+      <c r="A6" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="9">
+        <v>360</v>
+      </c>
+      <c r="C6" s="10">
+        <v>120</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1">
+        <v>51.39</v>
+      </c>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1">
+        <v>129</v>
+      </c>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="18.600000000000001" thickBot="1">
+      <c r="A7" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="36">
+        <v>360</v>
+      </c>
+      <c r="C7" s="37">
+        <v>120</v>
+      </c>
+      <c r="D7" s="23"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21">
+        <v>46.53</v>
+      </c>
+      <c r="O7" s="21"/>
+      <c r="P7" s="21">
+        <v>46.5</v>
+      </c>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="21">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="9">
+        <v>720</v>
+      </c>
+      <c r="C8" s="10">
+        <v>240</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1">
+        <v>52.04</v>
+      </c>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1">
+        <v>622</v>
+      </c>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="20">
+        <v>720</v>
+      </c>
+      <c r="C9" s="21">
+        <v>240</v>
+      </c>
+      <c r="D9" s="23"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21">
+        <v>46.94</v>
+      </c>
+      <c r="O9" s="21"/>
+      <c r="P9" s="21">
+        <v>335</v>
+      </c>
+      <c r="Q9" s="21"/>
+      <c r="R9" s="21">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10" s="41"/>
+      <c r="B10" s="12">
+        <v>1440</v>
+      </c>
+      <c r="C10" s="1">
+        <v>480</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11" s="19"/>
+      <c r="B11" s="20">
+        <v>1440</v>
+      </c>
+      <c r="C11" s="21">
+        <v>480</v>
+      </c>
+      <c r="D11" s="23"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="21"/>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="21"/>
+      <c r="R11" s="21"/>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12" s="53"/>
+      <c r="B12" s="54"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13" s="53"/>
+      <c r="B13" s="56"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="21"/>
+      <c r="Q13" s="21"/>
+      <c r="R13" s="21"/>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="A14" s="41"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+    </row>
+    <row r="15" spans="1:18" ht="18.600000000000001" thickBot="1">
+      <c r="A15" s="19"/>
+      <c r="B15" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="21"/>
+      <c r="P15" s="21"/>
+      <c r="Q15" s="21"/>
+      <c r="R15" s="21"/>
+    </row>
+    <row r="16" spans="1:18" ht="18.600000000000001" thickBot="1">
+      <c r="A16" s="41"/>
+      <c r="B16" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="21">
+        <v>15.8</v>
+      </c>
+      <c r="D16" s="1">
+        <v>23</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+    </row>
+    <row r="17" spans="1:18" ht="18.600000000000001" thickBot="1">
+      <c r="A17" s="41"/>
+      <c r="B17" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="21">
+        <v>46.5</v>
+      </c>
+      <c r="D17" s="1">
+        <v>129</v>
+      </c>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="21"/>
+      <c r="O17" s="21"/>
+      <c r="P17" s="21"/>
+      <c r="Q17" s="21"/>
+      <c r="R17" s="21"/>
+    </row>
+    <row r="18" spans="1:18" ht="18.600000000000001" thickBot="1">
+      <c r="A18" s="41"/>
+      <c r="B18" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="21">
+        <v>335</v>
+      </c>
+      <c r="D18" s="1">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" ht="18.600000000000001" thickBot="1">
+      <c r="A19" s="19"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="30"/>
+    </row>
+    <row r="20" spans="1:18" ht="18.600000000000001" thickBot="1">
+      <c r="B20" s="9"/>
+    </row>
+    <row r="21" spans="1:18">
+      <c r="B21" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="A2:B2"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{377FF92D-4DBA-4F49-BB2B-54DC8031C982}">
+  <dimension ref="A1:R33"/>
+  <sheetViews>
+    <sheetView topLeftCell="A21" zoomScale="75" workbookViewId="0">
+      <selection activeCell="P25" sqref="P25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="4" width="8.796875" style="1"/>
+    <col min="1" max="1" width="10.296875" style="1" customWidth="1"/>
+    <col min="2" max="3" width="8.796875" style="1"/>
+    <col min="4" max="4" width="8.796875" style="2"/>
+    <col min="5" max="5" width="8.796875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="8.796875" style="2"/>
+    <col min="7" max="7" width="8.796875" style="4"/>
+    <col min="8" max="8" width="9.796875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="8.796875" style="2"/>
+    <col min="10" max="10" width="11.796875" style="2" customWidth="1"/>
+    <col min="11" max="12" width="8.796875" style="1"/>
+    <col min="13" max="13" width="12.3984375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="13.59765625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="10.796875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="14.296875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="14" style="1" customWidth="1"/>
+    <col min="18" max="18" width="8.796875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18">
+      <c r="A1" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="52"/>
+      <c r="C1" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="50"/>
+      <c r="H1" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
+      <c r="A2" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="52"/>
+    </row>
+    <row r="3" spans="1:18" ht="18.600000000000001" thickBot="1">
+      <c r="B3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="18.600000000000001" thickBot="1">
+      <c r="A4" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="9">
+        <v>180</v>
+      </c>
+      <c r="C4" s="10">
+        <v>60</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="E4" s="2">
+        <v>3</v>
+      </c>
+      <c r="F4" s="2">
+        <v>2</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1000</v>
+      </c>
+      <c r="J4" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="K4" s="35">
+        <v>1E-3</v>
+      </c>
+      <c r="M4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="N4" s="1">
+        <v>298.64</v>
+      </c>
+      <c r="P4" s="1">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>0.125</v>
+      </c>
+      <c r="R4" s="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" s="25" customFormat="1" ht="18.600000000000001" thickBot="1">
+      <c r="A5" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="36">
+        <v>180</v>
+      </c>
+      <c r="C5" s="37">
+        <v>60</v>
+      </c>
+      <c r="D5" s="23">
+        <v>0.3</v>
+      </c>
+      <c r="E5" s="21">
+        <v>3</v>
+      </c>
+      <c r="F5" s="21">
+        <v>2</v>
+      </c>
+      <c r="G5" s="21"/>
+      <c r="H5" s="24">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="I5" s="21">
+        <v>1000</v>
+      </c>
+      <c r="J5" s="24">
+        <v>1E-3</v>
+      </c>
+      <c r="K5" s="24">
+        <v>1E-3</v>
+      </c>
+      <c r="L5" s="24">
+        <v>1E-3</v>
+      </c>
+      <c r="M5" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="N5" s="21">
+        <v>286.70999999999998</v>
+      </c>
+      <c r="O5" s="24"/>
+      <c r="P5" s="21">
+        <v>7.85</v>
+      </c>
+      <c r="Q5" s="21"/>
+      <c r="R5" s="21"/>
+    </row>
+    <row r="6" spans="1:18" ht="18.600000000000001" thickBot="1">
+      <c r="A6" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="9">
+        <v>360</v>
+      </c>
+      <c r="C6" s="10">
+        <v>120</v>
+      </c>
+      <c r="D6" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="E6" s="2">
+        <v>3</v>
+      </c>
+      <c r="F6" s="2">
+        <v>2</v>
+      </c>
+      <c r="H6" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="I6" s="2">
+        <v>400</v>
+      </c>
+      <c r="J6" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="M6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="N6" s="1">
+        <v>303.32</v>
+      </c>
+      <c r="P6" s="1">
+        <v>27.2</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="R6" s="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" s="25" customFormat="1" ht="18.600000000000001" thickBot="1">
+      <c r="A7" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="36">
+        <v>360</v>
+      </c>
+      <c r="C7" s="37">
+        <v>120</v>
+      </c>
+      <c r="D7" s="23">
+        <v>0.3</v>
+      </c>
+      <c r="E7" s="21">
+        <v>3</v>
+      </c>
+      <c r="F7" s="21">
+        <v>2</v>
+      </c>
+      <c r="G7" s="21"/>
+      <c r="H7" s="24">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="I7" s="21">
+        <v>1000</v>
+      </c>
+      <c r="J7" s="24">
+        <v>1E-3</v>
+      </c>
+      <c r="K7" s="24">
+        <v>1E-3</v>
+      </c>
+      <c r="L7" s="24">
+        <v>1E-3</v>
+      </c>
+      <c r="M7" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="N7" s="21">
+        <v>277.82</v>
+      </c>
+      <c r="O7" s="21"/>
+      <c r="P7" s="21">
+        <v>89.2</v>
+      </c>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="21">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="9">
+        <v>720</v>
+      </c>
+      <c r="C8" s="10">
+        <v>240</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="E8" s="2">
+        <v>3</v>
+      </c>
+      <c r="F8" s="2">
+        <v>2</v>
+      </c>
+      <c r="H8" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="I8" s="2">
+        <v>1000</v>
+      </c>
+      <c r="J8" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P8" s="1">
+        <v>117.38</v>
+      </c>
+      <c r="R8" s="1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" s="25" customFormat="1">
+      <c r="A9" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="20">
+        <v>720</v>
+      </c>
+      <c r="C9" s="21">
+        <v>240</v>
+      </c>
+      <c r="D9" s="23">
+        <v>0.3</v>
+      </c>
+      <c r="E9" s="21">
+        <v>3</v>
+      </c>
+      <c r="F9" s="21">
+        <v>2</v>
+      </c>
+      <c r="G9" s="21"/>
+      <c r="H9" s="24">
+        <v>1E-3</v>
+      </c>
+      <c r="I9" s="21">
+        <v>1000</v>
+      </c>
+      <c r="J9" s="24">
+        <v>1E-3</v>
+      </c>
+      <c r="K9" s="24">
+        <v>1E-3</v>
+      </c>
+      <c r="L9" s="24">
+        <v>1E-3</v>
+      </c>
+      <c r="M9" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="N9" s="21"/>
+      <c r="O9" s="21"/>
+      <c r="P9" s="21">
+        <v>134</v>
+      </c>
+      <c r="Q9" s="21"/>
+      <c r="R9" s="21">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="12">
+        <v>1440</v>
+      </c>
+      <c r="C10" s="1">
+        <v>480</v>
+      </c>
+      <c r="D10" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="E10" s="2">
+        <v>3</v>
+      </c>
+      <c r="F10" s="2">
+        <v>2</v>
+      </c>
+      <c r="H10" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="I10" s="2">
+        <v>1000</v>
+      </c>
+      <c r="J10" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="N10" s="1">
+        <v>270.73</v>
+      </c>
+      <c r="P10" s="1">
+        <v>719.28</v>
+      </c>
+      <c r="R10" s="1">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" s="25" customFormat="1">
+      <c r="A11" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="20">
+        <v>1440</v>
+      </c>
+      <c r="C11" s="21">
+        <v>480</v>
+      </c>
+      <c r="D11" s="23">
+        <v>0.3</v>
+      </c>
+      <c r="E11" s="21">
+        <v>3</v>
+      </c>
+      <c r="F11" s="21">
+        <v>2</v>
+      </c>
+      <c r="G11" s="21"/>
+      <c r="H11" s="24">
+        <v>1E-3</v>
+      </c>
+      <c r="I11" s="21">
+        <v>400</v>
+      </c>
+      <c r="J11" s="24">
+        <v>1E-3</v>
+      </c>
+      <c r="K11" s="24">
+        <v>1E-3</v>
+      </c>
+      <c r="L11" s="24">
+        <v>1E-3</v>
+      </c>
+      <c r="M11" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="N11" s="21">
+        <v>270.25</v>
+      </c>
+      <c r="O11" s="21"/>
+      <c r="P11" s="21">
+        <v>706</v>
+      </c>
+      <c r="Q11" s="21"/>
+      <c r="R11" s="21">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" s="55" customFormat="1">
+      <c r="A12" s="53" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="54">
+        <v>3000</v>
+      </c>
+      <c r="C12" s="54">
+        <v>1000</v>
+      </c>
+      <c r="D12" s="54"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="54"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="54"/>
+      <c r="J12" s="54"/>
+      <c r="K12" s="54"/>
+      <c r="L12" s="54"/>
+      <c r="M12" s="54"/>
+      <c r="N12" s="54">
+        <v>271.06</v>
+      </c>
+      <c r="O12" s="54"/>
+      <c r="P12" s="54">
+        <v>4082</v>
+      </c>
+      <c r="Q12" s="54"/>
+      <c r="R12" s="54">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" s="55" customFormat="1">
+      <c r="A13" s="53" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="56">
+        <v>3000</v>
+      </c>
+      <c r="C13" s="56">
+        <v>1000</v>
+      </c>
+      <c r="D13" s="54"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="54"/>
+      <c r="H13" s="54"/>
+      <c r="I13" s="54"/>
+      <c r="J13" s="54"/>
+      <c r="K13" s="54"/>
+      <c r="L13" s="54"/>
+      <c r="M13" s="54"/>
+      <c r="N13" s="54">
+        <v>276.45999999999998</v>
+      </c>
+      <c r="O13" s="54"/>
+      <c r="P13" s="54">
+        <v>4534</v>
+      </c>
+      <c r="Q13" s="54"/>
+      <c r="R13" s="54">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="A14" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="1">
+        <v>100</v>
+      </c>
+      <c r="C14" s="1">
+        <v>100</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="H14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="M14" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="N14" s="1">
+        <v>25.51</v>
+      </c>
+      <c r="P14" s="1">
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="R14" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" s="25" customFormat="1" ht="18.600000000000001" thickBot="1">
+      <c r="A15" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="27">
+        <v>100</v>
+      </c>
+      <c r="C15" s="27">
+        <v>100</v>
+      </c>
+      <c r="D15" s="23"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="N15" s="21">
+        <v>24.06</v>
+      </c>
+      <c r="O15" s="21"/>
+      <c r="P15" s="21">
+        <v>6.54</v>
+      </c>
+      <c r="Q15" s="21"/>
+      <c r="R15" s="21">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="A16" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="10">
+        <v>500</v>
+      </c>
+      <c r="C16" s="10">
+        <v>500</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="H16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="M16" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="N16" s="1">
+        <v>25.08</v>
+      </c>
+      <c r="P16" s="1">
+        <v>128.68</v>
+      </c>
+      <c r="R16" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" s="25" customFormat="1">
+      <c r="A17" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="21">
+        <v>500</v>
+      </c>
+      <c r="C17" s="21">
+        <v>500</v>
+      </c>
+      <c r="D17" s="23"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="N17" s="21"/>
+      <c r="O17" s="21"/>
+      <c r="P17" s="21">
+        <v>143</v>
+      </c>
+      <c r="Q17" s="21"/>
+      <c r="R17" s="21">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
+      <c r="A18" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="H18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="M18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N18" s="1">
+        <v>25.25</v>
+      </c>
+      <c r="P18" s="1">
+        <v>773</v>
+      </c>
+      <c r="R18" s="1">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" s="25" customFormat="1">
+      <c r="A19" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="30">
+        <v>1000</v>
+      </c>
+      <c r="C19" s="30">
+        <v>1000</v>
+      </c>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="21"/>
+      <c r="M19" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="N19" s="21"/>
+      <c r="O19" s="21"/>
+      <c r="P19" s="21">
+        <v>708</v>
+      </c>
+      <c r="Q19" s="21"/>
+      <c r="R19" s="21">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" ht="18.600000000000001" thickBot="1"/>
+    <row r="21" spans="1:18" ht="18.600000000000001" thickBot="1">
+      <c r="A21" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="9">
+        <v>180</v>
+      </c>
+      <c r="C21" s="10">
+        <v>60</v>
+      </c>
+      <c r="D21" s="6"/>
+      <c r="G21" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H21" s="3"/>
+      <c r="I21" s="2">
+        <v>1000</v>
+      </c>
+      <c r="J21" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="K21" s="35">
+        <v>1E-3</v>
+      </c>
+      <c r="L21" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="N21" s="1">
+        <v>298.64</v>
+      </c>
+      <c r="P21" s="1">
+        <v>6.37</v>
+      </c>
+      <c r="R21" s="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" ht="18.600000000000001" thickBot="1">
+      <c r="A22" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="36">
+        <v>180</v>
+      </c>
+      <c r="C22" s="37">
+        <v>60</v>
+      </c>
+      <c r="D22" s="23"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="H22" s="24"/>
+      <c r="I22" s="21">
+        <v>1000</v>
+      </c>
+      <c r="J22" s="24">
+        <v>1E-3</v>
+      </c>
+      <c r="K22" s="24">
+        <v>1E-3</v>
+      </c>
+      <c r="L22" s="24">
+        <v>1E-3</v>
+      </c>
+      <c r="M22" s="21"/>
+      <c r="N22" s="21">
+        <v>288.69</v>
+      </c>
+      <c r="O22" s="24"/>
+      <c r="P22" s="21">
+        <v>7.19</v>
+      </c>
+      <c r="Q22" s="21"/>
+      <c r="R22" s="21">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" ht="18.600000000000001" thickBot="1">
+      <c r="A23" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" s="9">
+        <v>360</v>
+      </c>
+      <c r="C23" s="10">
+        <v>120</v>
+      </c>
+      <c r="D23" s="6"/>
+      <c r="H23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="N23" s="1">
+        <v>280.16000000000003</v>
+      </c>
+      <c r="P23" s="1">
+        <v>28.2</v>
+      </c>
+      <c r="R23" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" ht="18.600000000000001" thickBot="1">
+      <c r="A24" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="36">
+        <v>360</v>
+      </c>
+      <c r="C24" s="37">
+        <v>120</v>
+      </c>
+      <c r="D24" s="23"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="24"/>
+      <c r="M24" s="21"/>
+      <c r="N24" s="21">
+        <v>280.17</v>
+      </c>
+      <c r="O24" s="21"/>
+      <c r="P24" s="21">
+        <v>24.3</v>
+      </c>
+      <c r="Q24" s="21"/>
+      <c r="R24" s="21">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
+      <c r="A25" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="9">
+        <v>720</v>
+      </c>
+      <c r="C25" s="10">
+        <v>240</v>
+      </c>
+      <c r="D25" s="6"/>
+      <c r="H25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="N25" s="1">
+        <v>270.86</v>
+      </c>
+      <c r="P25" s="1">
+        <v>131.34</v>
+      </c>
+      <c r="R25" s="1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18">
+      <c r="A26" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="20">
+        <v>720</v>
+      </c>
+      <c r="C26" s="21">
+        <v>240</v>
+      </c>
+      <c r="D26" s="23"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="24"/>
+      <c r="M26" s="21"/>
+      <c r="N26" s="21">
+        <v>274.36</v>
+      </c>
+      <c r="O26" s="21"/>
+      <c r="P26" s="21">
+        <v>131</v>
+      </c>
+      <c r="Q26" s="21"/>
+      <c r="R26" s="21">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18">
+      <c r="A27" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" s="12">
+        <v>1440</v>
+      </c>
+      <c r="C27" s="1">
+        <v>480</v>
+      </c>
+      <c r="D27" s="6"/>
+      <c r="H27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="P27" s="1">
+        <v>719.28</v>
+      </c>
+      <c r="R27" s="1">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18">
+      <c r="A28" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" s="20">
+        <v>1440</v>
+      </c>
+      <c r="C28" s="21">
+        <v>480</v>
+      </c>
+      <c r="D28" s="23"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="24"/>
+      <c r="L28" s="24"/>
+      <c r="M28" s="21"/>
+      <c r="N28" s="21"/>
+      <c r="O28" s="21"/>
+      <c r="P28" s="21">
+        <v>706</v>
+      </c>
+      <c r="Q28" s="21"/>
+      <c r="R28" s="21">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" s="61" customFormat="1" ht="18.600000000000001" thickBot="1">
+      <c r="A29" s="57"/>
+      <c r="B29" s="58" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" s="59" t="s">
+        <v>59</v>
+      </c>
+      <c r="D29" s="58"/>
+      <c r="E29" s="59"/>
+      <c r="F29" s="59"/>
+      <c r="G29" s="59"/>
+      <c r="H29" s="60"/>
+      <c r="I29" s="59"/>
+      <c r="J29" s="60"/>
+      <c r="K29" s="60"/>
+      <c r="L29" s="60"/>
+      <c r="M29" s="59"/>
+      <c r="N29" s="59"/>
+      <c r="O29" s="59"/>
+      <c r="P29" s="59"/>
+      <c r="Q29" s="59"/>
+      <c r="R29" s="59"/>
+    </row>
+    <row r="30" spans="1:18" ht="18.600000000000001" thickBot="1">
+      <c r="A30" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B30" s="21">
+        <v>7.2</v>
+      </c>
+      <c r="C30" s="1">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" ht="18.600000000000001" thickBot="1">
+      <c r="A31" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B31" s="21">
+        <v>24.3</v>
+      </c>
+      <c r="C31" s="1">
+        <v>28.2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18">
+      <c r="A32" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B32" s="21">
+        <v>131</v>
+      </c>
+      <c r="C32" s="1">
+        <v>131.30000000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B33" s="21">
+        <v>706</v>
+      </c>
+      <c r="C33" s="1">
+        <v>719.3</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="A2:B2"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:T31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="72" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O25" sqref="O25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="10.296875" style="1" customWidth="1"/>
+    <col min="2" max="4" width="8.796875" style="1"/>
     <col min="5" max="5" width="8.796875" style="2"/>
     <col min="6" max="6" width="8.796875" style="2" customWidth="1"/>
     <col min="7" max="7" width="8.796875" style="2"/>
@@ -783,26 +4977,27 @@
     <col min="9" max="9" width="9.796875" style="2" customWidth="1"/>
     <col min="10" max="10" width="8.796875" style="2"/>
     <col min="11" max="11" width="11.796875" style="2" customWidth="1"/>
-    <col min="12" max="12" width="8.796875" style="1"/>
-    <col min="13" max="13" width="12.3984375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.59765625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="10.796875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="14.296875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="14" style="1" customWidth="1"/>
+    <col min="12" max="13" width="8.796875" style="1"/>
+    <col min="14" max="14" width="12.3984375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="13.59765625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="10.796875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="14.296875" style="1" customWidth="1"/>
+    <col min="18" max="18" width="14" style="1" customWidth="1"/>
+    <col min="19" max="19" width="8.796875" style="39"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:20">
+      <c r="A1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="5" t="s">
+      <c r="B1" s="52"/>
+      <c r="C1" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="7"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="50"/>
       <c r="H1" s="4" t="s">
         <v>14</v>
       </c>
@@ -810,20 +5005,20 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:20">
+      <c r="A2" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9"/>
-    </row>
-    <row r="3" spans="1:17" ht="18.600000000000001" thickBot="1">
-      <c r="B3" s="12" t="s">
+      <c r="B2" s="52"/>
+    </row>
+    <row r="3" spans="1:20" ht="18.600000000000001" thickBot="1">
+      <c r="B3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="7" t="s">
         <v>4</v>
       </c>
       <c r="E3" s="2" t="s">
@@ -851,33 +5046,41 @@
         <v>12</v>
       </c>
       <c r="M3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="Q3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="R3" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
-      <c r="A4" s="10"/>
-      <c r="B4" s="14">
+      <c r="S3" s="39" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="9">
         <v>20</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="10">
         <v>10</v>
       </c>
-      <c r="D4" s="16">
+      <c r="D4" s="11">
         <v>2</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="6">
         <v>0.3</v>
       </c>
       <c r="F4" s="2">
@@ -898,31 +5101,33 @@
       <c r="K4" s="3">
         <v>1E-3</v>
       </c>
-      <c r="M4" s="1" t="b">
+      <c r="N4" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="N4" s="1">
+      <c r="O4" s="1">
         <v>1396.9</v>
       </c>
-      <c r="P4" s="1">
+      <c r="Q4" s="1">
         <v>6.48</v>
       </c>
-      <c r="Q4" s="1" t="s">
+      <c r="R4" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
-      <c r="A5" s="10"/>
-      <c r="B5" s="17">
+    <row r="5" spans="1:20">
+      <c r="A5" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="12">
         <v>20</v>
       </c>
       <c r="C5" s="1">
         <v>10</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="13">
         <v>2</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="6">
         <v>0.3</v>
       </c>
       <c r="F5" s="2">
@@ -943,31 +5148,33 @@
       <c r="K5" s="3">
         <v>1E-3</v>
       </c>
-      <c r="M5" s="1" t="b">
+      <c r="N5" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="N5" s="1">
+      <c r="O5" s="1">
         <v>1396.3</v>
       </c>
-      <c r="P5" s="1">
+      <c r="Q5" s="1">
         <v>5.76</v>
       </c>
-      <c r="Q5" s="1" t="s">
+      <c r="R5" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="18.600000000000001" thickBot="1">
-      <c r="A6" s="10"/>
-      <c r="B6" s="19">
+    <row r="6" spans="1:20" ht="18.600000000000001" thickBot="1">
+      <c r="A6" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="14">
         <v>20</v>
       </c>
-      <c r="C6" s="20">
+      <c r="C6" s="15">
         <v>10</v>
       </c>
-      <c r="D6" s="21">
+      <c r="D6" s="16">
         <v>2</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="6">
         <v>0.3</v>
       </c>
       <c r="F6" s="2">
@@ -988,118 +5195,112 @@
       <c r="K6" s="3">
         <v>1E-3</v>
       </c>
-      <c r="M6" s="1" t="b">
+      <c r="N6" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="N6" s="1">
+      <c r="O6" s="1">
         <v>1440.8</v>
       </c>
-      <c r="P6" s="1">
+      <c r="Q6" s="1">
         <v>11.14</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
-      <c r="A7" s="10"/>
-      <c r="B7" s="14">
+    <row r="7" spans="1:20" s="25" customFormat="1">
+      <c r="A7" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="20">
         <v>20</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="21">
         <v>10</v>
       </c>
-      <c r="D7" s="16">
+      <c r="D7" s="22">
+        <v>2</v>
+      </c>
+      <c r="E7" s="23">
+        <v>0.3</v>
+      </c>
+      <c r="F7" s="21">
+        <v>3</v>
+      </c>
+      <c r="G7" s="21">
+        <v>2</v>
+      </c>
+      <c r="H7" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" s="24">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="J7" s="21">
+        <v>400</v>
+      </c>
+      <c r="K7" s="24">
+        <v>1E-3</v>
+      </c>
+      <c r="L7" s="24">
+        <v>1E-3</v>
+      </c>
+      <c r="M7" s="24">
+        <v>1E-3</v>
+      </c>
+      <c r="N7" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="O7" s="21">
+        <v>1815</v>
+      </c>
+      <c r="P7" s="24"/>
+      <c r="Q7" s="21">
+        <v>4.2</v>
+      </c>
+      <c r="R7" s="21"/>
+      <c r="S7" s="40">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" s="25" customFormat="1" ht="18.600000000000001" thickBot="1">
+      <c r="A8" s="19"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="I8" s="24"/>
+      <c r="J8" s="21">
+        <v>400</v>
+      </c>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="O8" s="21"/>
+      <c r="P8" s="24"/>
+      <c r="Q8" s="21"/>
+      <c r="R8" s="21"/>
+      <c r="S8" s="40"/>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="9">
+        <v>20</v>
+      </c>
+      <c r="C9" s="10">
         <v>10</v>
       </c>
-      <c r="E7" s="11">
-        <v>0.3</v>
-      </c>
-      <c r="F7" s="2">
-        <v>3</v>
-      </c>
-      <c r="G7" s="2">
-        <v>2</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I7" s="3">
-        <v>1E-3</v>
-      </c>
-      <c r="J7" s="2">
-        <v>400</v>
-      </c>
-      <c r="K7" s="3">
-        <v>1E-3</v>
-      </c>
-      <c r="M7" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="N7" s="1">
-        <v>2290.09</v>
-      </c>
-      <c r="P7" s="1">
-        <v>66.92</v>
-      </c>
-      <c r="Q7" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
-      <c r="A8" s="10"/>
-      <c r="B8" s="17">
-        <v>20</v>
-      </c>
-      <c r="C8" s="1">
+      <c r="D9" s="11">
         <v>10</v>
       </c>
-      <c r="D8" s="18">
-        <v>10</v>
-      </c>
-      <c r="E8" s="11">
-        <v>0.3</v>
-      </c>
-      <c r="F8" s="2">
-        <v>3</v>
-      </c>
-      <c r="G8" s="2">
-        <v>2</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I8" s="3">
-        <v>1E-3</v>
-      </c>
-      <c r="J8" s="2">
-        <v>400</v>
-      </c>
-      <c r="K8" s="3">
-        <v>1E-3</v>
-      </c>
-      <c r="M8" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="N8" s="1">
-        <v>2553.33</v>
-      </c>
-      <c r="P8" s="1">
-        <v>39.31</v>
-      </c>
-      <c r="Q8" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="18.600000000000001" thickBot="1">
-      <c r="A9" s="10"/>
-      <c r="B9" s="19">
-        <v>20</v>
-      </c>
-      <c r="C9" s="20">
-        <v>10</v>
-      </c>
-      <c r="D9" s="21">
-        <v>10</v>
-      </c>
-      <c r="E9" s="11">
+      <c r="E9" s="6">
         <v>0.3</v>
       </c>
       <c r="F9" s="2">
@@ -1109,7 +5310,7 @@
         <v>2</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I9" s="3">
         <v>1E-3</v>
@@ -1120,28 +5321,33 @@
       <c r="K9" s="3">
         <v>1E-3</v>
       </c>
-      <c r="M9" s="1" t="b">
+      <c r="N9" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="N9" s="1">
-        <v>2685.36</v>
-      </c>
-      <c r="P9" s="1">
-        <v>80.13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
-      <c r="A10" s="10"/>
-      <c r="B10" s="14">
-        <v>40</v>
-      </c>
-      <c r="C10" s="15">
+      <c r="O9" s="1">
+        <v>2290.09</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>66.92</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="12">
         <v>20</v>
       </c>
-      <c r="D10" s="16">
-        <v>4</v>
-      </c>
-      <c r="E10" s="11">
+      <c r="C10" s="1">
+        <v>10</v>
+      </c>
+      <c r="D10" s="13">
+        <v>10</v>
+      </c>
+      <c r="E10" s="6">
         <v>0.3</v>
       </c>
       <c r="F10" s="2">
@@ -1151,7 +5357,7 @@
         <v>2</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I10" s="3">
         <v>1E-3</v>
@@ -1162,34 +5368,33 @@
       <c r="K10" s="3">
         <v>1E-3</v>
       </c>
-      <c r="M10" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="N10" s="1">
-        <v>1113.6099999999999</v>
+      <c r="N10" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="O10" s="1">
-        <v>2E-3</v>
-      </c>
-      <c r="P10" s="1">
-        <v>132.87</v>
-      </c>
-      <c r="Q10" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
-      <c r="A11" s="10"/>
-      <c r="B11" s="17">
-        <v>40</v>
-      </c>
-      <c r="C11" s="1">
+        <v>2553.33</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>39.31</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="18.600000000000001" thickBot="1">
+      <c r="A11" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="14">
         <v>20</v>
       </c>
-      <c r="D11" s="18">
-        <v>4</v>
-      </c>
-      <c r="E11" s="11">
+      <c r="C11" s="15">
+        <v>10</v>
+      </c>
+      <c r="D11" s="16">
+        <v>10</v>
+      </c>
+      <c r="E11" s="6">
         <v>0.3</v>
       </c>
       <c r="F11" s="2">
@@ -1199,7 +5404,7 @@
         <v>2</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I11" s="3">
         <v>1E-3</v>
@@ -1210,127 +5415,104 @@
       <c r="K11" s="3">
         <v>1E-3</v>
       </c>
-      <c r="M11" s="1" t="b">
+      <c r="N11" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="N11" s="1">
-        <v>1051.27</v>
-      </c>
       <c r="O11" s="1">
-        <v>2E-3</v>
-      </c>
-      <c r="P11" s="1">
-        <v>119.56</v>
-      </c>
-      <c r="Q11" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="18.600000000000001" thickBot="1">
-      <c r="A12" s="10"/>
-      <c r="B12" s="19">
+        <v>2685.36</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>80.13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" s="25" customFormat="1" ht="18.600000000000001" thickBot="1">
+      <c r="A12" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="26">
+        <v>20</v>
+      </c>
+      <c r="C12" s="27">
+        <v>10</v>
+      </c>
+      <c r="D12" s="28">
+        <v>10</v>
+      </c>
+      <c r="E12" s="23">
+        <v>0.3</v>
+      </c>
+      <c r="F12" s="21">
+        <v>3</v>
+      </c>
+      <c r="G12" s="21">
+        <v>2</v>
+      </c>
+      <c r="H12" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12" s="24">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="J12" s="21">
+        <v>1000</v>
+      </c>
+      <c r="K12" s="24">
+        <v>1E-3</v>
+      </c>
+      <c r="L12" s="24">
+        <v>1E-3</v>
+      </c>
+      <c r="M12" s="24">
+        <v>1E-3</v>
+      </c>
+      <c r="N12" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="O12" s="21">
+        <v>3208.49</v>
+      </c>
+      <c r="P12" s="21"/>
+      <c r="Q12" s="21">
+        <v>12</v>
+      </c>
+      <c r="R12" s="21"/>
+      <c r="S12" s="40"/>
+    </row>
+    <row r="13" spans="1:20" s="25" customFormat="1" ht="18.600000000000001" thickBot="1">
+      <c r="A13" s="19"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="21"/>
+      <c r="Q13" s="21"/>
+      <c r="R13" s="21"/>
+      <c r="S13" s="40"/>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="9">
         <v>40</v>
       </c>
-      <c r="C12" s="20">
+      <c r="C14" s="10">
         <v>20</v>
       </c>
-      <c r="D12" s="21">
+      <c r="D14" s="11">
         <v>4</v>
       </c>
-      <c r="E12" s="11">
-        <v>0.3</v>
-      </c>
-      <c r="F12" s="2">
-        <v>3</v>
-      </c>
-      <c r="G12" s="2">
-        <v>2</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I12" s="3">
-        <v>1E-3</v>
-      </c>
-      <c r="J12" s="2">
-        <v>400</v>
-      </c>
-      <c r="K12" s="3">
-        <v>1E-3</v>
-      </c>
-      <c r="M12" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="N12" s="1">
-        <v>1131.98</v>
-      </c>
-      <c r="O12" s="1">
-        <v>8.1000000000000003E-2</v>
-      </c>
-      <c r="P12" s="1">
-        <v>305.12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
-      <c r="A13" s="10"/>
-      <c r="B13" s="17">
-        <v>60</v>
-      </c>
-      <c r="C13" s="1">
-        <v>20</v>
-      </c>
-      <c r="D13" s="18">
-        <v>20</v>
-      </c>
-      <c r="E13" s="11">
-        <v>0.3</v>
-      </c>
-      <c r="F13" s="2">
-        <v>3</v>
-      </c>
-      <c r="G13" s="2">
-        <v>2</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I13" s="3">
-        <v>1E-3</v>
-      </c>
-      <c r="J13" s="2">
-        <v>400</v>
-      </c>
-      <c r="K13" s="3">
-        <v>1E-3</v>
-      </c>
-      <c r="M13" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="N13" s="1">
-        <v>7785.21</v>
-      </c>
-      <c r="O13" s="1">
-        <v>5.5E-2</v>
-      </c>
-      <c r="P13" s="1">
-        <v>2293.73</v>
-      </c>
-      <c r="Q13" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
-      <c r="A14" s="10"/>
-      <c r="B14" s="17">
-        <v>60</v>
-      </c>
-      <c r="C14" s="1">
-        <v>20</v>
-      </c>
-      <c r="D14" s="18">
-        <v>20</v>
-      </c>
-      <c r="E14" s="11">
+      <c r="E14" s="6">
         <v>0.3</v>
       </c>
       <c r="F14" s="2">
@@ -1340,7 +5522,7 @@
         <v>2</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I14" s="3">
         <v>1E-3</v>
@@ -1351,34 +5533,39 @@
       <c r="K14" s="3">
         <v>1E-3</v>
       </c>
-      <c r="M14" s="1" t="b">
+      <c r="N14" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="N14" s="1">
-        <v>7554.4</v>
-      </c>
       <c r="O14" s="1">
-        <v>0.184</v>
+        <v>1113.6099999999999</v>
       </c>
       <c r="P14" s="1">
-        <v>7554.4</v>
-      </c>
-      <c r="Q14" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
-      <c r="A15" s="10"/>
-      <c r="B15" s="22">
-        <v>60</v>
-      </c>
-      <c r="C15" s="12">
+        <v>2E-3</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>132.87</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="T14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="12">
+        <v>40</v>
+      </c>
+      <c r="C15" s="1">
         <v>20</v>
       </c>
-      <c r="D15" s="23">
-        <v>20</v>
-      </c>
-      <c r="E15" s="11">
+      <c r="D15" s="13">
+        <v>4</v>
+      </c>
+      <c r="E15" s="6">
         <v>0.3</v>
       </c>
       <c r="F15" s="2">
@@ -1388,7 +5575,7 @@
         <v>2</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I15" s="3">
         <v>1E-3</v>
@@ -1399,49 +5586,654 @@
       <c r="K15" s="3">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
-      <c r="A16" s="10"/>
-      <c r="E16" s="11"/>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="10"/>
-      <c r="E17" s="11"/>
-      <c r="I17" s="3"/>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="1:11" ht="18.600000000000001" thickBot="1">
-      <c r="A18" s="10"/>
+      <c r="N15" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O15" s="1">
+        <v>1051.27</v>
+      </c>
+      <c r="P15" s="1">
+        <v>2E-3</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>119.56</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="T15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="18.600000000000001" thickBot="1">
+      <c r="A16" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="14">
+        <v>40</v>
+      </c>
+      <c r="C16" s="15">
+        <v>20</v>
+      </c>
+      <c r="D16" s="16">
+        <v>4</v>
+      </c>
+      <c r="E16" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="F16" s="2">
+        <v>3</v>
+      </c>
+      <c r="G16" s="2">
+        <v>2</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I16" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="J16" s="2">
+        <v>400</v>
+      </c>
+      <c r="K16" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="N16" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O16" s="1">
+        <v>1131.98</v>
+      </c>
+      <c r="P16" s="1">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>305.12</v>
+      </c>
+      <c r="T16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" s="25" customFormat="1">
+      <c r="A17" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="20">
+        <v>40</v>
+      </c>
+      <c r="C17" s="21">
+        <v>20</v>
+      </c>
+      <c r="D17" s="22">
+        <v>4</v>
+      </c>
+      <c r="E17" s="23">
+        <v>0.3</v>
+      </c>
+      <c r="F17" s="21">
+        <v>3</v>
+      </c>
+      <c r="G17" s="21">
+        <v>2</v>
+      </c>
+      <c r="H17" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="I17" s="24">
+        <v>1E-3</v>
+      </c>
+      <c r="J17" s="21">
+        <v>1000</v>
+      </c>
+      <c r="K17" s="24">
+        <v>1E-3</v>
+      </c>
+      <c r="L17" s="24">
+        <v>1E-3</v>
+      </c>
+      <c r="M17" s="24">
+        <v>1E-3</v>
+      </c>
+      <c r="N17" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="O17" s="21">
+        <v>1238.22</v>
+      </c>
+      <c r="P17" s="21">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="Q17" s="21">
+        <v>161</v>
+      </c>
+      <c r="R17" s="21"/>
+      <c r="S17" s="40"/>
+    </row>
+    <row r="18" spans="1:20" s="25" customFormat="1">
+      <c r="A18" s="19"/>
       <c r="B18" s="20"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="11"/>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="10"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="11"/>
-      <c r="I19" s="3"/>
-      <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="A20" s="10"/>
-      <c r="E20" s="11"/>
-      <c r="I20" s="3"/>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="A21" s="10"/>
-      <c r="E21" s="11"/>
-      <c r="I21" s="3"/>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="24"/>
+      <c r="N18" s="21"/>
+      <c r="O18" s="21"/>
+      <c r="P18" s="21"/>
+      <c r="Q18" s="21"/>
+      <c r="R18" s="21"/>
+      <c r="S18" s="40"/>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="12">
+        <v>60</v>
+      </c>
+      <c r="C19" s="1">
+        <v>20</v>
+      </c>
+      <c r="D19" s="13">
+        <v>20</v>
+      </c>
+      <c r="E19" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="F19" s="2">
+        <v>3</v>
+      </c>
+      <c r="G19" s="2">
+        <v>2</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I19" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="J19" s="2">
+        <v>400</v>
+      </c>
+      <c r="K19" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="N19" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O19" s="1">
+        <v>7785.21</v>
+      </c>
+      <c r="P19" s="1">
+        <v>5.5E-2</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>2293.73</v>
+      </c>
+      <c r="R19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="12">
+        <v>60</v>
+      </c>
+      <c r="C20" s="1">
+        <v>20</v>
+      </c>
+      <c r="D20" s="13">
+        <v>20</v>
+      </c>
+      <c r="E20" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="F20" s="2">
+        <v>3</v>
+      </c>
+      <c r="G20" s="2">
+        <v>2</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I20" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="J20" s="2">
+        <v>400</v>
+      </c>
+      <c r="K20" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="N20" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O20" s="1">
+        <v>7554.4</v>
+      </c>
+      <c r="P20" s="1">
+        <v>0.184</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>7554.4</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="T20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="17">
+        <v>60</v>
+      </c>
+      <c r="C21" s="7">
+        <v>20</v>
+      </c>
+      <c r="D21" s="18">
+        <v>20</v>
+      </c>
+      <c r="E21" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="F21" s="2">
+        <v>3</v>
+      </c>
+      <c r="G21" s="2">
+        <v>2</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I21" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="J21" s="2">
+        <v>400</v>
+      </c>
+      <c r="K21" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="T21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" s="25" customFormat="1">
+      <c r="A22" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="20">
+        <v>60</v>
+      </c>
+      <c r="C22" s="21">
+        <v>20</v>
+      </c>
+      <c r="D22" s="22">
+        <v>20</v>
+      </c>
+      <c r="E22" s="23">
+        <v>0.3</v>
+      </c>
+      <c r="F22" s="21">
+        <v>3</v>
+      </c>
+      <c r="G22" s="21">
+        <v>2</v>
+      </c>
+      <c r="H22" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="I22" s="24">
+        <v>1E-3</v>
+      </c>
+      <c r="J22" s="21">
+        <v>400</v>
+      </c>
+      <c r="K22" s="24">
+        <v>1E-3</v>
+      </c>
+      <c r="L22" s="24">
+        <v>1E-3</v>
+      </c>
+      <c r="M22" s="24">
+        <v>1E-3</v>
+      </c>
+      <c r="N22" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="O22" s="21">
+        <v>8587.69</v>
+      </c>
+      <c r="P22" s="21">
+        <v>0.02</v>
+      </c>
+      <c r="Q22" s="21">
+        <v>1547</v>
+      </c>
+      <c r="R22" s="21"/>
+      <c r="S22" s="40"/>
+    </row>
+    <row r="23" spans="1:20" s="55" customFormat="1" ht="18.600000000000001" thickBot="1">
+      <c r="A23" s="53"/>
+      <c r="B23" s="62"/>
+      <c r="C23" s="54"/>
+      <c r="D23" s="53"/>
+      <c r="E23" s="62"/>
+      <c r="F23" s="54"/>
+      <c r="G23" s="54"/>
+      <c r="H23" s="54"/>
+      <c r="I23" s="63"/>
+      <c r="J23" s="54"/>
+      <c r="K23" s="63"/>
+      <c r="L23" s="63"/>
+      <c r="M23" s="63"/>
+      <c r="N23" s="54"/>
+      <c r="O23" s="54"/>
+      <c r="P23" s="54"/>
+      <c r="Q23" s="54"/>
+      <c r="R23" s="54"/>
+      <c r="S23" s="64"/>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="9">
+        <v>24</v>
+      </c>
+      <c r="C24" s="10">
+        <v>12</v>
+      </c>
+      <c r="D24" s="11">
+        <v>12</v>
+      </c>
+      <c r="E24" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="F24" s="2">
+        <v>3</v>
+      </c>
+      <c r="G24" s="2">
+        <v>2</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I24" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="J24" s="2">
+        <v>1000</v>
+      </c>
+      <c r="K24" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="O24" s="1">
+        <v>2619.1</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>114</v>
+      </c>
+      <c r="S24" s="39">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" s="25" customFormat="1" ht="18.600000000000001" thickBot="1">
+      <c r="A25" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="20">
+        <v>24</v>
+      </c>
+      <c r="C25" s="21">
+        <v>12</v>
+      </c>
+      <c r="D25" s="22">
+        <v>12</v>
+      </c>
+      <c r="E25" s="23">
+        <v>0.3</v>
+      </c>
+      <c r="F25" s="21">
+        <v>3</v>
+      </c>
+      <c r="G25" s="21">
+        <v>2</v>
+      </c>
+      <c r="H25" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="I25" s="24">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="J25" s="21"/>
+      <c r="K25" s="24">
+        <v>1E-3</v>
+      </c>
+      <c r="L25" s="24">
+        <v>1E-3</v>
+      </c>
+      <c r="M25" s="24">
+        <v>1E-3</v>
+      </c>
+      <c r="N25" s="21"/>
+      <c r="O25" s="21"/>
+      <c r="P25" s="24"/>
+      <c r="Q25" s="21"/>
+      <c r="R25" s="21"/>
+      <c r="S25" s="40">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" s="9">
+        <v>48</v>
+      </c>
+      <c r="C26" s="10">
+        <v>24</v>
+      </c>
+      <c r="D26" s="11">
+        <v>24</v>
+      </c>
+      <c r="E26" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="F26" s="2">
+        <v>3</v>
+      </c>
+      <c r="G26" s="2">
+        <v>2</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I26" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="K26" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="S26" s="39">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" s="25" customFormat="1" ht="18.600000000000001" thickBot="1">
+      <c r="A27" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" s="26">
+        <v>48</v>
+      </c>
+      <c r="C27" s="27">
+        <v>24</v>
+      </c>
+      <c r="D27" s="28">
+        <v>24</v>
+      </c>
+      <c r="E27" s="23">
+        <v>0.3</v>
+      </c>
+      <c r="F27" s="21">
+        <v>3</v>
+      </c>
+      <c r="G27" s="21">
+        <v>2</v>
+      </c>
+      <c r="H27" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="I27" s="24">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="J27" s="21"/>
+      <c r="K27" s="24">
+        <v>1E-3</v>
+      </c>
+      <c r="L27" s="24">
+        <v>1E-3</v>
+      </c>
+      <c r="M27" s="24">
+        <v>1E-3</v>
+      </c>
+      <c r="N27" s="21"/>
+      <c r="O27" s="21"/>
+      <c r="P27" s="21"/>
+      <c r="Q27" s="21"/>
+      <c r="R27" s="21"/>
+      <c r="S27" s="40">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" s="9">
+        <v>96</v>
+      </c>
+      <c r="C28" s="10">
+        <v>48</v>
+      </c>
+      <c r="D28" s="11">
+        <v>48</v>
+      </c>
+      <c r="E28" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="F28" s="2">
+        <v>3</v>
+      </c>
+      <c r="G28" s="2">
+        <v>2</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I28" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="K28" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="S28" s="39">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" s="25" customFormat="1">
+      <c r="A29" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" s="20">
+        <v>96</v>
+      </c>
+      <c r="C29" s="21">
+        <v>48</v>
+      </c>
+      <c r="D29" s="22">
+        <v>48</v>
+      </c>
+      <c r="E29" s="23">
+        <v>0.3</v>
+      </c>
+      <c r="F29" s="21">
+        <v>3</v>
+      </c>
+      <c r="G29" s="21">
+        <v>2</v>
+      </c>
+      <c r="H29" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="I29" s="24">
+        <v>1E-3</v>
+      </c>
+      <c r="J29" s="21"/>
+      <c r="K29" s="24">
+        <v>1E-3</v>
+      </c>
+      <c r="L29" s="24">
+        <v>1E-3</v>
+      </c>
+      <c r="M29" s="24">
+        <v>1E-3</v>
+      </c>
+      <c r="N29" s="21"/>
+      <c r="O29" s="21"/>
+      <c r="P29" s="21"/>
+      <c r="Q29" s="21"/>
+      <c r="R29" s="21"/>
+      <c r="S29" s="40">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="41"/>
+      <c r="B30" s="12"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="6"/>
+      <c r="I30" s="3"/>
+      <c r="K30" s="3"/>
+    </row>
+    <row r="31" spans="1:20" s="25" customFormat="1">
+      <c r="A31" s="42"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="24"/>
+      <c r="J31" s="21"/>
+      <c r="K31" s="24"/>
+      <c r="L31" s="24"/>
+      <c r="M31" s="24"/>
+      <c r="N31" s="21"/>
+      <c r="O31" s="21"/>
+      <c r="P31" s="21"/>
+      <c r="Q31" s="21"/>
+      <c r="R31" s="21"/>
+      <c r="S31" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1453,4 +6245,1049 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE3F1102-2E55-4039-9979-CCDD5CB37D33}">
+  <dimension ref="A1:S19"/>
+  <sheetViews>
+    <sheetView zoomScale="72" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S9" sqref="S9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="10.296875" style="1" customWidth="1"/>
+    <col min="2" max="4" width="8.796875" style="1"/>
+    <col min="5" max="5" width="8.796875" style="2"/>
+    <col min="6" max="6" width="8.796875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="8.796875" style="2"/>
+    <col min="8" max="8" width="8.796875" style="4"/>
+    <col min="9" max="9" width="9.796875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="8.796875" style="2"/>
+    <col min="11" max="11" width="11.796875" style="2" customWidth="1"/>
+    <col min="12" max="13" width="8.796875" style="1"/>
+    <col min="14" max="14" width="12.3984375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="13.59765625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="10.796875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="14.296875" style="1" customWidth="1"/>
+    <col min="18" max="18" width="14" style="1" customWidth="1"/>
+    <col min="19" max="19" width="8.796875" style="39"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19">
+      <c r="A1" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="52"/>
+      <c r="C1" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="52"/>
+    </row>
+    <row r="3" spans="1:19" ht="18.600000000000001" thickBot="1">
+      <c r="B3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="S3" s="39" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4" s="41" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="9">
+        <v>24</v>
+      </c>
+      <c r="C4" s="10">
+        <v>12</v>
+      </c>
+      <c r="D4" s="11">
+        <v>12</v>
+      </c>
+      <c r="E4" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="F4" s="2">
+        <v>3</v>
+      </c>
+      <c r="G4" s="2">
+        <v>2</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1000</v>
+      </c>
+      <c r="K4" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="O4" s="1">
+        <v>4696.3999999999996</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>80.8</v>
+      </c>
+      <c r="S4" s="39">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" s="25" customFormat="1" ht="18.600000000000001" thickBot="1">
+      <c r="A5" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="20">
+        <v>24</v>
+      </c>
+      <c r="C5" s="21">
+        <v>12</v>
+      </c>
+      <c r="D5" s="22">
+        <v>12</v>
+      </c>
+      <c r="E5" s="23">
+        <v>0.3</v>
+      </c>
+      <c r="F5" s="21">
+        <v>3</v>
+      </c>
+      <c r="G5" s="21">
+        <v>2</v>
+      </c>
+      <c r="H5" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="24">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="J5" s="21"/>
+      <c r="K5" s="24">
+        <v>1E-3</v>
+      </c>
+      <c r="L5" s="24">
+        <v>1E-3</v>
+      </c>
+      <c r="M5" s="24">
+        <v>1E-3</v>
+      </c>
+      <c r="N5" s="21"/>
+      <c r="O5" s="21">
+        <v>4886.7</v>
+      </c>
+      <c r="P5" s="24"/>
+      <c r="Q5" s="21">
+        <v>69.099999999999994</v>
+      </c>
+      <c r="R5" s="21"/>
+      <c r="S5" s="40">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="A6" s="41" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" s="9">
+        <v>48</v>
+      </c>
+      <c r="C6" s="10">
+        <v>24</v>
+      </c>
+      <c r="D6" s="11">
+        <v>24</v>
+      </c>
+      <c r="E6" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="F6" s="2">
+        <v>3</v>
+      </c>
+      <c r="G6" s="2">
+        <v>2</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="K6" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="O6" s="1">
+        <v>6061.59</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>6566.5</v>
+      </c>
+      <c r="S6" s="39">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" s="25" customFormat="1" ht="18.600000000000001" thickBot="1">
+      <c r="A7" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="26">
+        <v>48</v>
+      </c>
+      <c r="C7" s="27">
+        <v>24</v>
+      </c>
+      <c r="D7" s="28">
+        <v>24</v>
+      </c>
+      <c r="E7" s="23">
+        <v>0.3</v>
+      </c>
+      <c r="F7" s="21">
+        <v>3</v>
+      </c>
+      <c r="G7" s="21">
+        <v>2</v>
+      </c>
+      <c r="H7" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" s="24">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="J7" s="21"/>
+      <c r="K7" s="24">
+        <v>1E-3</v>
+      </c>
+      <c r="L7" s="24">
+        <v>1E-3</v>
+      </c>
+      <c r="M7" s="24">
+        <v>1E-3</v>
+      </c>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21">
+        <v>6104</v>
+      </c>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="21">
+        <v>5469</v>
+      </c>
+      <c r="R7" s="21"/>
+      <c r="S7" s="40">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="A8" s="41" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="9">
+        <v>48</v>
+      </c>
+      <c r="C8" s="10">
+        <v>24</v>
+      </c>
+      <c r="D8" s="11">
+        <v>24</v>
+      </c>
+      <c r="E8" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="F8" s="2">
+        <v>3</v>
+      </c>
+      <c r="G8" s="2">
+        <v>2</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="K8" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="S8" s="39">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" s="25" customFormat="1" ht="18.600000000000001" thickBot="1">
+      <c r="A9" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="26">
+        <v>48</v>
+      </c>
+      <c r="C9" s="27">
+        <v>24</v>
+      </c>
+      <c r="D9" s="28">
+        <v>24</v>
+      </c>
+      <c r="E9" s="23">
+        <v>0.3</v>
+      </c>
+      <c r="F9" s="21">
+        <v>3</v>
+      </c>
+      <c r="G9" s="21">
+        <v>2</v>
+      </c>
+      <c r="H9" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" s="24">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="J9" s="21"/>
+      <c r="K9" s="24">
+        <v>1E-3</v>
+      </c>
+      <c r="L9" s="24">
+        <v>1E-3</v>
+      </c>
+      <c r="M9" s="24">
+        <v>1E-3</v>
+      </c>
+      <c r="N9" s="21"/>
+      <c r="O9" s="21"/>
+      <c r="P9" s="21"/>
+      <c r="Q9" s="21"/>
+      <c r="R9" s="21"/>
+      <c r="S9" s="40">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="A10" s="41" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" s="9">
+        <v>96</v>
+      </c>
+      <c r="C10" s="10">
+        <v>48</v>
+      </c>
+      <c r="D10" s="11">
+        <v>48</v>
+      </c>
+      <c r="E10" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="F10" s="2">
+        <v>3</v>
+      </c>
+      <c r="G10" s="2">
+        <v>2</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="K10" s="3">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" s="25" customFormat="1">
+      <c r="A11" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="20">
+        <v>96</v>
+      </c>
+      <c r="C11" s="21">
+        <v>48</v>
+      </c>
+      <c r="D11" s="22">
+        <v>48</v>
+      </c>
+      <c r="E11" s="23">
+        <v>0.3</v>
+      </c>
+      <c r="F11" s="21">
+        <v>3</v>
+      </c>
+      <c r="G11" s="21">
+        <v>2</v>
+      </c>
+      <c r="H11" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" s="24">
+        <v>1E-3</v>
+      </c>
+      <c r="J11" s="21"/>
+      <c r="K11" s="24">
+        <v>1E-3</v>
+      </c>
+      <c r="L11" s="24">
+        <v>1E-3</v>
+      </c>
+      <c r="M11" s="24">
+        <v>1E-3</v>
+      </c>
+      <c r="N11" s="21"/>
+      <c r="O11" s="21"/>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="21"/>
+      <c r="R11" s="21"/>
+      <c r="S11" s="40"/>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="A12" s="41"/>
+      <c r="B12" s="12"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="6"/>
+      <c r="I12" s="3"/>
+      <c r="K12" s="3"/>
+    </row>
+    <row r="13" spans="1:19" s="25" customFormat="1">
+      <c r="A13" s="42"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="21"/>
+      <c r="Q13" s="21"/>
+      <c r="R13" s="21"/>
+      <c r="S13" s="40"/>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="A14" s="41"/>
+      <c r="E14" s="6"/>
+      <c r="I14" s="3"/>
+      <c r="K14" s="3"/>
+    </row>
+    <row r="15" spans="1:19" ht="18.600000000000001" thickBot="1">
+      <c r="A15" s="41"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="6"/>
+    </row>
+    <row r="16" spans="1:19" ht="18.600000000000001" thickBot="1">
+      <c r="A16" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" s="10"/>
+      <c r="E16" s="6"/>
+      <c r="I16" s="3"/>
+      <c r="K16" s="3"/>
+    </row>
+    <row r="17" spans="1:11" ht="18.600000000000001" thickBot="1">
+      <c r="A17" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" s="21"/>
+      <c r="E17" s="6"/>
+      <c r="I17" s="3"/>
+      <c r="K17" s="3"/>
+    </row>
+    <row r="18" spans="1:11" ht="18.600000000000001" thickBot="1">
+      <c r="A18" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18" s="21"/>
+      <c r="E18" s="6"/>
+      <c r="I18" s="3"/>
+      <c r="K18" s="3"/>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19" s="21"/>
+      <c r="D19" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="A2:B2"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D24E4D8-3EA6-4DD4-9796-FBDE01859CB2}">
+  <dimension ref="A1:R19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetData>
+    <row r="1" spans="1:18">
+      <c r="A1" s="51"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+    </row>
+    <row r="2" spans="1:18">
+      <c r="A2" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="52"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+    </row>
+    <row r="3" spans="1:18" s="47" customFormat="1" ht="36.6" thickBot="1">
+      <c r="A3" s="43"/>
+      <c r="B3" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="L3" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="M3" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="N3" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="P3" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q3" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="R3" s="46" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="18.600000000000001" thickBot="1">
+      <c r="A4" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="9">
+        <v>180</v>
+      </c>
+      <c r="C4" s="10">
+        <v>60</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2">
+        <v>2</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="3"/>
+      <c r="I4" s="2">
+        <v>1000</v>
+      </c>
+      <c r="J4" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="K4" s="35">
+        <v>1E-3</v>
+      </c>
+      <c r="L4" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1">
+        <v>197</v>
+      </c>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1">
+        <v>64</v>
+      </c>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="18.600000000000001" thickBot="1">
+      <c r="A5" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="36">
+        <v>180</v>
+      </c>
+      <c r="C5" s="37">
+        <v>60</v>
+      </c>
+      <c r="D5" s="23"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21">
+        <v>2</v>
+      </c>
+      <c r="G5" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="24"/>
+      <c r="I5" s="21">
+        <v>1000</v>
+      </c>
+      <c r="J5" s="24">
+        <v>1E-3</v>
+      </c>
+      <c r="K5" s="24">
+        <v>1E-3</v>
+      </c>
+      <c r="L5" s="24">
+        <v>1E-3</v>
+      </c>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21">
+        <v>176</v>
+      </c>
+      <c r="O5" s="24"/>
+      <c r="P5" s="21">
+        <v>85.2</v>
+      </c>
+      <c r="Q5" s="21"/>
+      <c r="R5" s="21">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="18.600000000000001" thickBot="1">
+      <c r="A6" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="9">
+        <v>360</v>
+      </c>
+      <c r="C6" s="10">
+        <v>120</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+    </row>
+    <row r="7" spans="1:18" ht="18.600000000000001" thickBot="1">
+      <c r="A7" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="36">
+        <v>360</v>
+      </c>
+      <c r="C7" s="37">
+        <v>120</v>
+      </c>
+      <c r="D7" s="23"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="21"/>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="9">
+        <v>720</v>
+      </c>
+      <c r="C8" s="10">
+        <v>240</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="20">
+        <v>720</v>
+      </c>
+      <c r="C9" s="21">
+        <v>240</v>
+      </c>
+      <c r="D9" s="23"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="21"/>
+      <c r="P9" s="21"/>
+      <c r="Q9" s="21"/>
+      <c r="R9" s="21"/>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="12">
+        <v>1440</v>
+      </c>
+      <c r="C10" s="1">
+        <v>480</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="20">
+        <v>1440</v>
+      </c>
+      <c r="C11" s="21">
+        <v>480</v>
+      </c>
+      <c r="D11" s="23"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="21"/>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="21"/>
+      <c r="R11" s="21"/>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12" s="53"/>
+      <c r="B12" s="54"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13" s="53"/>
+      <c r="B13" s="56"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="21"/>
+      <c r="Q13" s="21"/>
+      <c r="R13" s="21"/>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="A14" s="41"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+    </row>
+    <row r="15" spans="1:18" ht="18.600000000000001" thickBot="1">
+      <c r="A15" s="19"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="21"/>
+      <c r="P15" s="21"/>
+      <c r="Q15" s="21"/>
+      <c r="R15" s="21"/>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="A16" s="41"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+    </row>
+    <row r="17" spans="1:18">
+      <c r="A17" s="19"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="21"/>
+      <c r="O17" s="21"/>
+      <c r="P17" s="21"/>
+      <c r="Q17" s="21"/>
+      <c r="R17" s="21"/>
+    </row>
+    <row r="18" spans="1:18">
+      <c r="A18" s="41"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="1:18">
+      <c r="A19" s="19"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="A2:B2"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/benchmarks.xlsx
+++ b/benchmarks.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20373"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4149E06-722D-44CD-A7F6-44974C1A40ED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3601AB66-69DA-4957-9199-8EA347BC2C9A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PolyTop" sheetId="3" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="64">
   <si>
     <t>cantilever beam problem</t>
     <phoneticPr fontId="1"/>
@@ -272,10 +272,6 @@
   </si>
   <si>
     <t>48x24x24</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>96x48x48</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -787,21 +783,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -833,6 +814,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1959,6 +1955,1087 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1920" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>Cantilever</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
+              <a:t> Beam 3D</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="ja-JP"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1920" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>top3d!$B$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TopOpt.jl</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ja-JP"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>top3d!$A$32:$A$33</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>24x12x12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>48x24x24</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>top3d!$B$32:$B$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>49.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1677</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E864-4B07-905F-DB6A56A96A73}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>top3d!$C$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>top3d</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ja-JP"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>top3d!$A$32:$A$33</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>24x12x12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>48x24x24</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>top3d!$C$32:$C$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3347.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E864-4B07-905F-DB6A56A96A73}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1981492720"/>
+        <c:axId val="1979557056"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1981492720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1979557056"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1979557056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>runtime (sec)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1981492720"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1600" baseline="0">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1920" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>Cantilever Beam 3D</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1920" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>top3d125!$B$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TopOpt.jl</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ja-JP"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>top3d125!$A$17:$A$18</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>24x12x12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>48x24x24</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>top3d125!$B$17:$B$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>69.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5469</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E864-4B07-905F-DB6A56A96A73}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>top3d125!$C$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>top3D125</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ja-JP"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>top3d125!$A$17:$A$18</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>24x12x12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>48x24x24</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>top3d125!$C$17:$C$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>80.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6566.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E864-4B07-905F-DB6A56A96A73}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1981492720"/>
+        <c:axId val="1979557056"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1981492720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1979557056"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1979557056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>runtime (sec)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1981492720"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1600" baseline="0">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
   <a:schemeClr val="accent1"/>
@@ -2033,6 +3110,80 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent5"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent5"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -2537,6 +3688,1012 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3101,6 +5258,88 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D9DA320-9FF0-42B3-8BC3-5EB6B1200339}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>476249</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>173567</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>63499</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>122767</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{142ED1A9-76B5-4627-B3E8-C56939351F41}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>158750</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>412750</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>6349</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F825842-FC18-4C3D-BFCA-2C35F7AE2801}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3382,6 +5621,510 @@
 </a:theme>
 </file>
 
+<file path=xl/theme/themeOverride1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="Office">
+    <a:dk1>
+      <a:sysClr val="windowText" lastClr="000000"/>
+    </a:dk1>
+    <a:lt1>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="44546A"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="E7E6E6"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="5B9BD5"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="ED7D31"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="A5A5A5"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="FFC000"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="4472C4"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="70AD47"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="0563C1"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="954F72"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="Office">
+    <a:majorFont>
+      <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック Light"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线 Light"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Times New Roman"/>
+      <a:font script="Hebr" typeface="Times New Roman"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="MoolBoran"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Times New Roman"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Arial"/>
+      <a:font script="Hebr" typeface="Arial"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="DaunPenh"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Arial"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="Office">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="110000"/>
+              <a:satMod val="105000"/>
+              <a:tint val="67000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="103000"/>
+              <a:tint val="73000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="109000"/>
+              <a:tint val="81000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:satMod val="103000"/>
+              <a:lumMod val="102000"/>
+              <a:tint val="94000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:satMod val="110000"/>
+              <a:lumMod val="100000"/>
+              <a:shade val="100000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="99000"/>
+              <a:satMod val="120000"/>
+              <a:shade val="78000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="63000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:tint val="95000"/>
+          <a:satMod val="170000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="93000"/>
+              <a:satMod val="150000"/>
+              <a:shade val="98000"/>
+              <a:lumMod val="102000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:tint val="98000"/>
+              <a:satMod val="130000"/>
+              <a:shade val="90000"/>
+              <a:lumMod val="103000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="63000"/>
+              <a:satMod val="120000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
+<file path=xl/theme/themeOverride2.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="Office">
+    <a:dk1>
+      <a:sysClr val="windowText" lastClr="000000"/>
+    </a:dk1>
+    <a:lt1>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="44546A"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="E7E6E6"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="5B9BD5"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="ED7D31"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="A5A5A5"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="FFC000"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="4472C4"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="70AD47"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="0563C1"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="954F72"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="Office">
+    <a:majorFont>
+      <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック Light"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线 Light"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Times New Roman"/>
+      <a:font script="Hebr" typeface="Times New Roman"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="MoolBoran"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Times New Roman"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Arial"/>
+      <a:font script="Hebr" typeface="Arial"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="DaunPenh"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Arial"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="Office">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="110000"/>
+              <a:satMod val="105000"/>
+              <a:tint val="67000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="103000"/>
+              <a:tint val="73000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="109000"/>
+              <a:tint val="81000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:satMod val="103000"/>
+              <a:lumMod val="102000"/>
+              <a:tint val="94000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:satMod val="110000"/>
+              <a:lumMod val="100000"/>
+              <a:shade val="100000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="99000"/>
+              <a:satMod val="120000"/>
+              <a:shade val="78000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="63000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:tint val="95000"/>
+          <a:satMod val="170000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="93000"/>
+              <a:satMod val="150000"/>
+              <a:shade val="98000"/>
+              <a:lumMod val="102000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:tint val="98000"/>
+              <a:satMod val="130000"/>
+              <a:shade val="90000"/>
+              <a:lumMod val="103000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="63000"/>
+              <a:satMod val="120000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BBA36B3-5BEE-4935-8F61-DCE6985BBAE8}">
   <dimension ref="A1:R21"/>
@@ -3393,16 +6136,16 @@
   <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="48" t="s">
+      <c r="B1" s="61"/>
+      <c r="C1" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="50"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="64"/>
       <c r="G1" s="4"/>
       <c r="H1" s="2" t="s">
         <v>15</v>
@@ -3419,10 +6162,10 @@
       <c r="R1" s="1"/>
     </row>
     <row r="2" spans="1:18">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="52"/>
+      <c r="B2" s="61"/>
       <c r="C2" s="1"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -3756,9 +6499,9 @@
       <c r="R11" s="21"/>
     </row>
     <row r="12" spans="1:18">
-      <c r="A12" s="53"/>
-      <c r="B12" s="54"/>
-      <c r="C12" s="54"/>
+      <c r="A12" s="48"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="49"/>
       <c r="D12" s="6"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -3776,9 +6519,9 @@
       <c r="R12" s="1"/>
     </row>
     <row r="13" spans="1:18">
-      <c r="A13" s="53"/>
-      <c r="B13" s="56"/>
-      <c r="C13" s="56"/>
+      <c r="A13" s="48"/>
+      <c r="B13" s="51"/>
+      <c r="C13" s="51"/>
       <c r="D13" s="23"/>
       <c r="E13" s="21"/>
       <c r="F13" s="21"/>
@@ -3934,7 +6677,7 @@
   <dimension ref="A1:R33"/>
   <sheetViews>
     <sheetView topLeftCell="A21" zoomScale="75" workbookViewId="0">
-      <selection activeCell="P25" sqref="P25"/>
+      <selection activeCell="A29" sqref="A29:C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -3958,25 +6701,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="48" t="s">
+      <c r="B1" s="61"/>
+      <c r="C1" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="50"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="64"/>
       <c r="H1" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:18">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="52"/>
+      <c r="B2" s="61"/>
     </row>
     <row r="3" spans="1:18" ht="18.600000000000001" thickBot="1">
       <c r="B3" s="7" t="s">
@@ -4397,67 +7140,67 @@
         <v>74</v>
       </c>
     </row>
-    <row r="12" spans="1:18" s="55" customFormat="1">
-      <c r="A12" s="53" t="s">
+    <row r="12" spans="1:18" s="50" customFormat="1">
+      <c r="A12" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="54">
+      <c r="B12" s="49">
         <v>3000</v>
       </c>
-      <c r="C12" s="54">
+      <c r="C12" s="49">
         <v>1000</v>
       </c>
-      <c r="D12" s="54"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="54"/>
-      <c r="G12" s="54"/>
-      <c r="H12" s="54"/>
-      <c r="I12" s="54"/>
-      <c r="J12" s="54"/>
-      <c r="K12" s="54"/>
-      <c r="L12" s="54"/>
-      <c r="M12" s="54"/>
-      <c r="N12" s="54">
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="49"/>
+      <c r="J12" s="49"/>
+      <c r="K12" s="49"/>
+      <c r="L12" s="49"/>
+      <c r="M12" s="49"/>
+      <c r="N12" s="49">
         <v>271.06</v>
       </c>
-      <c r="O12" s="54"/>
-      <c r="P12" s="54">
+      <c r="O12" s="49"/>
+      <c r="P12" s="49">
         <v>4082</v>
       </c>
-      <c r="Q12" s="54"/>
-      <c r="R12" s="54">
+      <c r="Q12" s="49"/>
+      <c r="R12" s="49">
         <v>89</v>
       </c>
     </row>
-    <row r="13" spans="1:18" s="55" customFormat="1">
-      <c r="A13" s="53" t="s">
+    <row r="13" spans="1:18" s="50" customFormat="1">
+      <c r="A13" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="56">
+      <c r="B13" s="51">
         <v>3000</v>
       </c>
-      <c r="C13" s="56">
+      <c r="C13" s="51">
         <v>1000</v>
       </c>
-      <c r="D13" s="54"/>
-      <c r="E13" s="54"/>
-      <c r="F13" s="54"/>
-      <c r="G13" s="54"/>
-      <c r="H13" s="54"/>
-      <c r="I13" s="54"/>
-      <c r="J13" s="54"/>
-      <c r="K13" s="54"/>
-      <c r="L13" s="54"/>
-      <c r="M13" s="54"/>
-      <c r="N13" s="54">
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="49"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="49"/>
+      <c r="K13" s="49"/>
+      <c r="L13" s="49"/>
+      <c r="M13" s="49"/>
+      <c r="N13" s="49">
         <v>276.45999999999998</v>
       </c>
-      <c r="O13" s="54"/>
-      <c r="P13" s="54">
+      <c r="O13" s="49"/>
+      <c r="P13" s="49">
         <v>4534</v>
       </c>
-      <c r="Q13" s="54"/>
-      <c r="R13" s="54">
+      <c r="Q13" s="49"/>
+      <c r="R13" s="49">
         <v>43</v>
       </c>
     </row>
@@ -4877,29 +7620,29 @@
         <v>74</v>
       </c>
     </row>
-    <row r="29" spans="1:18" s="61" customFormat="1" ht="18.600000000000001" thickBot="1">
-      <c r="A29" s="57"/>
-      <c r="B29" s="58" t="s">
+    <row r="29" spans="1:18" s="56" customFormat="1" ht="18.600000000000001" thickBot="1">
+      <c r="A29" s="52"/>
+      <c r="B29" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="C29" s="59" t="s">
+      <c r="C29" s="54" t="s">
         <v>59</v>
       </c>
-      <c r="D29" s="58"/>
-      <c r="E29" s="59"/>
-      <c r="F29" s="59"/>
-      <c r="G29" s="59"/>
-      <c r="H29" s="60"/>
-      <c r="I29" s="59"/>
-      <c r="J29" s="60"/>
-      <c r="K29" s="60"/>
-      <c r="L29" s="60"/>
-      <c r="M29" s="59"/>
-      <c r="N29" s="59"/>
-      <c r="O29" s="59"/>
-      <c r="P29" s="59"/>
-      <c r="Q29" s="59"/>
-      <c r="R29" s="59"/>
+      <c r="D29" s="53"/>
+      <c r="E29" s="54"/>
+      <c r="F29" s="54"/>
+      <c r="G29" s="54"/>
+      <c r="H29" s="55"/>
+      <c r="I29" s="54"/>
+      <c r="J29" s="55"/>
+      <c r="K29" s="55"/>
+      <c r="L29" s="55"/>
+      <c r="M29" s="54"/>
+      <c r="N29" s="54"/>
+      <c r="O29" s="54"/>
+      <c r="P29" s="54"/>
+      <c r="Q29" s="54"/>
+      <c r="R29" s="54"/>
     </row>
     <row r="30" spans="1:18" ht="18.600000000000001" thickBot="1">
       <c r="A30" s="9" t="s">
@@ -4960,10 +7703,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="72" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O25" sqref="O25"/>
+    <sheetView topLeftCell="A28" zoomScale="72" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N45" sqref="N45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -4987,17 +7730,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="48" t="s">
+      <c r="B1" s="61"/>
+      <c r="C1" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="50"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="64"/>
       <c r="H1" s="4" t="s">
         <v>14</v>
       </c>
@@ -5006,10 +7749,10 @@
       </c>
     </row>
     <row r="2" spans="1:20">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="52"/>
+      <c r="B2" s="61"/>
     </row>
     <row r="3" spans="1:20" ht="18.600000000000001" thickBot="1">
       <c r="B3" s="7" t="s">
@@ -5930,26 +8673,26 @@
       <c r="R22" s="21"/>
       <c r="S22" s="40"/>
     </row>
-    <row r="23" spans="1:20" s="55" customFormat="1" ht="18.600000000000001" thickBot="1">
-      <c r="A23" s="53"/>
-      <c r="B23" s="62"/>
-      <c r="C23" s="54"/>
-      <c r="D23" s="53"/>
-      <c r="E23" s="62"/>
-      <c r="F23" s="54"/>
-      <c r="G23" s="54"/>
-      <c r="H23" s="54"/>
-      <c r="I23" s="63"/>
-      <c r="J23" s="54"/>
-      <c r="K23" s="63"/>
-      <c r="L23" s="63"/>
-      <c r="M23" s="63"/>
-      <c r="N23" s="54"/>
-      <c r="O23" s="54"/>
-      <c r="P23" s="54"/>
-      <c r="Q23" s="54"/>
-      <c r="R23" s="54"/>
-      <c r="S23" s="64"/>
+    <row r="23" spans="1:20" s="50" customFormat="1" ht="18.600000000000001" thickBot="1">
+      <c r="A23" s="48"/>
+      <c r="B23" s="57"/>
+      <c r="C23" s="49"/>
+      <c r="D23" s="48"/>
+      <c r="E23" s="57"/>
+      <c r="F23" s="49"/>
+      <c r="G23" s="49"/>
+      <c r="H23" s="49"/>
+      <c r="I23" s="58"/>
+      <c r="J23" s="49"/>
+      <c r="K23" s="58"/>
+      <c r="L23" s="58"/>
+      <c r="M23" s="58"/>
+      <c r="N23" s="49"/>
+      <c r="O23" s="49"/>
+      <c r="P23" s="49"/>
+      <c r="Q23" s="49"/>
+      <c r="R23" s="49"/>
+      <c r="S23" s="59"/>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" s="41" t="s">
@@ -5974,7 +8717,7 @@
         <v>2</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I24" s="3">
         <v>1E-3</v>
@@ -6034,12 +8777,16 @@
         <v>1E-3</v>
       </c>
       <c r="N25" s="21"/>
-      <c r="O25" s="21"/>
+      <c r="O25" s="21">
+        <v>3164.5</v>
+      </c>
       <c r="P25" s="24"/>
-      <c r="Q25" s="21"/>
+      <c r="Q25" s="21">
+        <v>49.4</v>
+      </c>
       <c r="R25" s="21"/>
       <c r="S25" s="40">
-        <v>300</v>
+        <v>169</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -6065,13 +8812,19 @@
         <v>2</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I26" s="3">
         <v>1E-3</v>
       </c>
       <c r="K26" s="3">
         <v>1E-3</v>
+      </c>
+      <c r="O26" s="1">
+        <v>3518.3</v>
+      </c>
+      <c r="Q26" s="1">
+        <v>3347.9</v>
       </c>
       <c r="S26" s="39">
         <v>300</v>
@@ -6116,9 +8869,13 @@
         <v>1E-3</v>
       </c>
       <c r="N27" s="21"/>
-      <c r="O27" s="21"/>
+      <c r="O27" s="21">
+        <v>3829</v>
+      </c>
       <c r="P27" s="21"/>
-      <c r="Q27" s="21"/>
+      <c r="Q27" s="21">
+        <v>1677</v>
+      </c>
       <c r="R27" s="21"/>
       <c r="S27" s="40">
         <v>300</v>
@@ -6147,7 +8904,7 @@
         <v>2</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I28" s="3">
         <v>1E-3</v>
@@ -6214,10 +8971,14 @@
       <c r="I30" s="3"/>
       <c r="K30" s="3"/>
     </row>
-    <row r="31" spans="1:20" s="25" customFormat="1">
-      <c r="A31" s="42"/>
-      <c r="B31" s="20"/>
-      <c r="C31" s="21"/>
+    <row r="31" spans="1:20" s="25" customFormat="1" ht="18.600000000000001" thickBot="1">
+      <c r="A31" s="52"/>
+      <c r="B31" s="53" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" s="54" t="s">
+        <v>39</v>
+      </c>
       <c r="D31" s="22"/>
       <c r="E31" s="23"/>
       <c r="F31" s="21"/>
@@ -6235,6 +8996,35 @@
       <c r="R31" s="21"/>
       <c r="S31" s="40"/>
     </row>
+    <row r="32" spans="1:20" ht="18.600000000000001" thickBot="1">
+      <c r="A32" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B32" s="21">
+        <v>49.4</v>
+      </c>
+      <c r="C32" s="1">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="18.600000000000001" thickBot="1">
+      <c r="A33" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B33" s="21">
+        <v>1677</v>
+      </c>
+      <c r="C33" s="1">
+        <v>3347.9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="9"/>
+      <c r="B34" s="21"/>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="B35" s="21"/>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="C1:G1"/>
@@ -6244,6 +9034,7 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -6251,8 +9042,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE3F1102-2E55-4039-9979-CCDD5CB37D33}">
   <dimension ref="A1:S19"/>
   <sheetViews>
-    <sheetView zoomScale="72" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S9" sqref="S9"/>
+    <sheetView tabSelected="1" zoomScale="72" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -6276,17 +9067,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="48" t="s">
+      <c r="B1" s="61"/>
+      <c r="C1" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="50"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="64"/>
       <c r="H1" s="4" t="s">
         <v>14</v>
       </c>
@@ -6295,10 +9086,10 @@
       </c>
     </row>
     <row r="2" spans="1:19">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="60" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="52"/>
+      <c r="B2" s="61"/>
     </row>
     <row r="3" spans="1:19" ht="18.600000000000001" thickBot="1">
       <c r="B3" s="7" t="s">
@@ -6358,7 +9149,7 @@
     </row>
     <row r="4" spans="1:19">
       <c r="A4" s="41" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B4" s="9">
         <v>24</v>
@@ -6453,7 +9244,7 @@
     </row>
     <row r="6" spans="1:19">
       <c r="A6" s="41" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B6" s="9">
         <v>48</v>
@@ -6545,7 +9336,7 @@
     </row>
     <row r="8" spans="1:19">
       <c r="A8" s="41" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B8" s="9">
         <v>48</v>
@@ -6627,7 +9418,7 @@
     </row>
     <row r="10" spans="1:19">
       <c r="A10" s="41" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B10" s="9">
         <v>96</v>
@@ -6745,9 +9536,7 @@
       <c r="E15" s="6"/>
     </row>
     <row r="16" spans="1:19" ht="18.600000000000001" thickBot="1">
-      <c r="A16" s="27" t="s">
-        <v>55</v>
-      </c>
+      <c r="A16" s="27"/>
       <c r="B16" s="27" t="s">
         <v>56</v>
       </c>
@@ -6763,7 +9552,12 @@
       <c r="A17" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="B17" s="21"/>
+      <c r="B17" s="21">
+        <v>69.099999999999994</v>
+      </c>
+      <c r="C17" s="1">
+        <v>80.8</v>
+      </c>
       <c r="E17" s="6"/>
       <c r="I17" s="3"/>
       <c r="K17" s="3"/>
@@ -6772,15 +9566,18 @@
       <c r="A18" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B18" s="21"/>
+      <c r="B18" s="21">
+        <v>5469</v>
+      </c>
+      <c r="C18" s="1">
+        <v>6566.5</v>
+      </c>
       <c r="E18" s="6"/>
       <c r="I18" s="3"/>
       <c r="K18" s="3"/>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="9" t="s">
-        <v>63</v>
-      </c>
+      <c r="A19" s="9"/>
       <c r="B19" s="21"/>
       <c r="D19" s="8"/>
     </row>
@@ -6793,6 +9590,7 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -6807,14 +9605,14 @@
   <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="A1" s="51"/>
-      <c r="B1" s="52"/>
-      <c r="C1" s="48" t="s">
+      <c r="A1" s="60"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="50"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="64"/>
       <c r="G1" s="4"/>
       <c r="H1" s="2" t="s">
         <v>15</v>
@@ -6831,10 +9629,10 @@
       <c r="R1" s="1"/>
     </row>
     <row r="2" spans="1:18">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="52"/>
+      <c r="B2" s="61"/>
       <c r="C2" s="1"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -7151,9 +9949,9 @@
       <c r="R11" s="21"/>
     </row>
     <row r="12" spans="1:18">
-      <c r="A12" s="53"/>
-      <c r="B12" s="54"/>
-      <c r="C12" s="54"/>
+      <c r="A12" s="48"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="49"/>
       <c r="D12" s="6"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -7171,9 +9969,9 @@
       <c r="R12" s="1"/>
     </row>
     <row r="13" spans="1:18">
-      <c r="A13" s="53"/>
-      <c r="B13" s="56"/>
-      <c r="C13" s="56"/>
+      <c r="A13" s="48"/>
+      <c r="B13" s="51"/>
+      <c r="C13" s="51"/>
       <c r="D13" s="23"/>
       <c r="E13" s="21"/>
       <c r="F13" s="21"/>
